--- a/data-raw/roemer.sugarbeet.uniformity.xlsx
+++ b/data-raw/roemer.sugarbeet.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D9821-281D-43EE-A3CB-2B8437C05B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6D9984-1E91-4447-A424-A2E42C241BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="0" windowWidth="9080" windowHeight="12000" activeTab="1" xr2:uid="{787A16F4-718A-4C94-AAEB-D66401190E66}"/>
+    <workbookView xWindow="4040" yWindow="3000" windowWidth="7590" windowHeight="8130" activeTab="1" xr2:uid="{787A16F4-718A-4C94-AAEB-D66401190E66}"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -797,9 +797,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 ---Internal Use--- </oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -1199,8 +1196,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 ---Internal Use--- </oddFooter>
-  </headerFooter>
 </worksheet>
 </file>